--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,6 +86,12 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Mst1</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,173 +540,2219 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.492188539535844</v>
+        <v>0.299108</v>
       </c>
       <c r="H2">
-        <v>0.492188539535844</v>
+        <v>0.598216</v>
       </c>
       <c r="I2">
-        <v>0.2568766991201927</v>
+        <v>0.09566928674233253</v>
       </c>
       <c r="J2">
-        <v>0.2568766991201927</v>
+        <v>0.06791276791733164</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.861420780218106</v>
+        <v>0.117625</v>
       </c>
       <c r="N2">
-        <v>0.861420780218106</v>
+        <v>0.23525</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.07754598039874951</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.05590422258079081</v>
       </c>
       <c r="Q2">
-        <v>0.4239814357413769</v>
+        <v>0.0351825785</v>
       </c>
       <c r="R2">
-        <v>0.4239814357413769</v>
+        <v>0.140730314</v>
       </c>
       <c r="S2">
-        <v>0.2568766991201927</v>
+        <v>0.007418768634483265</v>
       </c>
       <c r="T2">
-        <v>0.2568766991201927</v>
+        <v>0.003796610493728098</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.619759565037482</v>
+        <v>0.299108</v>
       </c>
       <c r="H3">
-        <v>0.619759565037482</v>
+        <v>0.598216</v>
       </c>
       <c r="I3">
-        <v>0.3234569245865196</v>
+        <v>0.09566928674233253</v>
       </c>
       <c r="J3">
-        <v>0.3234569245865196</v>
+        <v>0.06791276791733164</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.861420780218106</v>
+        <v>0.8902446666666667</v>
       </c>
       <c r="N3">
-        <v>0.861420780218106</v>
+        <v>2.670734</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.586906656505204</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6346665589376653</v>
       </c>
       <c r="Q3">
-        <v>0.5338737680622218</v>
+        <v>0.2662793017573333</v>
       </c>
       <c r="R3">
-        <v>0.5338737680622218</v>
+        <v>1.597675810544</v>
       </c>
       <c r="S3">
-        <v>0.3234569245865196</v>
+        <v>0.05614894121218003</v>
       </c>
       <c r="T3">
-        <v>0.3234569245865196</v>
+        <v>0.04310196272202515</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.299108</v>
+      </c>
+      <c r="H4">
+        <v>0.598216</v>
+      </c>
+      <c r="I4">
+        <v>0.09566928674233253</v>
+      </c>
+      <c r="J4">
+        <v>0.06791276791733164</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.09760433333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.292813</v>
+      </c>
+      <c r="O4">
+        <v>0.0643470666907518</v>
+      </c>
+      <c r="P4">
+        <v>0.06958335016598981</v>
+      </c>
+      <c r="Q4">
+        <v>0.02919423693466667</v>
+      </c>
+      <c r="R4">
+        <v>0.175165421608</v>
+      </c>
+      <c r="S4">
+        <v>0.006156037974265528</v>
+      </c>
+      <c r="T4">
+        <v>0.004725597910733285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.299108</v>
+      </c>
+      <c r="H5">
+        <v>0.598216</v>
+      </c>
+      <c r="I5">
+        <v>0.09566928674233253</v>
+      </c>
+      <c r="J5">
+        <v>0.06791276791733164</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.089216</v>
+      </c>
+      <c r="N5">
+        <v>0.267648</v>
+      </c>
+      <c r="O5">
+        <v>0.05881693676730998</v>
+      </c>
+      <c r="P5">
+        <v>0.06360320240299044</v>
+      </c>
+      <c r="Q5">
+        <v>0.026685219328</v>
+      </c>
+      <c r="R5">
+        <v>0.160111315968</v>
+      </c>
+      <c r="S5">
+        <v>0.005626974388897419</v>
+      </c>
+      <c r="T5">
+        <v>0.00431946952359336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.299108</v>
+      </c>
+      <c r="H6">
+        <v>0.598216</v>
+      </c>
+      <c r="I6">
+        <v>0.09566928674233253</v>
+      </c>
+      <c r="J6">
+        <v>0.06791276791733164</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.097341</v>
+      </c>
+      <c r="N6">
+        <v>0.292023</v>
+      </c>
+      <c r="O6">
+        <v>0.06417346038677726</v>
+      </c>
+      <c r="P6">
+        <v>0.06939561653861966</v>
+      </c>
+      <c r="Q6">
+        <v>0.029115471828</v>
+      </c>
+      <c r="R6">
+        <v>0.174692830968</v>
+      </c>
+      <c r="S6">
+        <v>0.006139429182990312</v>
+      </c>
+      <c r="T6">
+        <v>0.004712848400467418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.804101662577991</v>
-      </c>
-      <c r="H4">
-        <v>0.804101662577991</v>
-      </c>
-      <c r="I4">
-        <v>0.4196663762932878</v>
-      </c>
-      <c r="J4">
-        <v>0.4196663762932878</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.861420780218106</v>
-      </c>
-      <c r="N4">
-        <v>0.861420780218106</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.6926698815526092</v>
-      </c>
-      <c r="R4">
-        <v>0.6926698815526092</v>
-      </c>
-      <c r="S4">
-        <v>0.4196663762932878</v>
-      </c>
-      <c r="T4">
-        <v>0.4196663762932878</v>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.299108</v>
+      </c>
+      <c r="H7">
+        <v>0.598216</v>
+      </c>
+      <c r="I7">
+        <v>0.09566928674233253</v>
+      </c>
+      <c r="J7">
+        <v>0.06791276791733164</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.224811</v>
+      </c>
+      <c r="N7">
+        <v>0.449622</v>
+      </c>
+      <c r="O7">
+        <v>0.1482098992512074</v>
+      </c>
+      <c r="P7">
+        <v>0.106847049373944</v>
+      </c>
+      <c r="Q7">
+        <v>0.067242768588</v>
+      </c>
+      <c r="R7">
+        <v>0.268971074352</v>
+      </c>
+      <c r="S7">
+        <v>0.01417913534951598</v>
+      </c>
+      <c r="T7">
+        <v>0.007256278866784335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5984986666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.795496</v>
+      </c>
+      <c r="I8">
+        <v>0.1914289840333158</v>
+      </c>
+      <c r="J8">
+        <v>0.2038345733723226</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.117625</v>
+      </c>
+      <c r="N8">
+        <v>0.23525</v>
+      </c>
+      <c r="O8">
+        <v>0.07754598039874951</v>
+      </c>
+      <c r="P8">
+        <v>0.05590422258079081</v>
+      </c>
+      <c r="Q8">
+        <v>0.07039840566666666</v>
+      </c>
+      <c r="R8">
+        <v>0.422390434</v>
+      </c>
+      <c r="S8">
+        <v>0.01484454824360004</v>
+      </c>
+      <c r="T8">
+        <v>0.01139521335946686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5984986666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.795496</v>
+      </c>
+      <c r="I9">
+        <v>0.1914289840333158</v>
+      </c>
+      <c r="J9">
+        <v>0.2038345733723226</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8902446666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.670734</v>
+      </c>
+      <c r="O9">
+        <v>0.586906656505204</v>
+      </c>
+      <c r="P9">
+        <v>0.6346665589376653</v>
+      </c>
+      <c r="Q9">
+        <v>0.5328102460071111</v>
+      </c>
+      <c r="R9">
+        <v>4.795292214064</v>
+      </c>
+      <c r="S9">
+        <v>0.1123509449771815</v>
+      </c>
+      <c r="T9">
+        <v>0.129366987274739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5984986666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.795496</v>
+      </c>
+      <c r="I10">
+        <v>0.1914289840333158</v>
+      </c>
+      <c r="J10">
+        <v>0.2038345733723226</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.09760433333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.292813</v>
+      </c>
+      <c r="O10">
+        <v>0.0643470666907518</v>
+      </c>
+      <c r="P10">
+        <v>0.06958335016598981</v>
+      </c>
+      <c r="Q10">
+        <v>0.05841606336088889</v>
+      </c>
+      <c r="R10">
+        <v>0.525744570248</v>
+      </c>
+      <c r="S10">
+        <v>0.01231789360213464</v>
+      </c>
+      <c r="T10">
+        <v>0.01418349249490146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5984986666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.795496</v>
+      </c>
+      <c r="I11">
+        <v>0.1914289840333158</v>
+      </c>
+      <c r="J11">
+        <v>0.2038345733723226</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.089216</v>
+      </c>
+      <c r="N11">
+        <v>0.267648</v>
+      </c>
+      <c r="O11">
+        <v>0.05881693676730998</v>
+      </c>
+      <c r="P11">
+        <v>0.06360320240299044</v>
+      </c>
+      <c r="Q11">
+        <v>0.05339565704533333</v>
+      </c>
+      <c r="R11">
+        <v>0.480560913408</v>
+      </c>
+      <c r="S11">
+        <v>0.01125926644931793</v>
+      </c>
+      <c r="T11">
+        <v>0.01296453162692704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5984986666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.795496</v>
+      </c>
+      <c r="I12">
+        <v>0.1914289840333158</v>
+      </c>
+      <c r="J12">
+        <v>0.2038345733723226</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.097341</v>
+      </c>
+      <c r="N12">
+        <v>0.292023</v>
+      </c>
+      <c r="O12">
+        <v>0.06417346038677726</v>
+      </c>
+      <c r="P12">
+        <v>0.06939561653861966</v>
+      </c>
+      <c r="Q12">
+        <v>0.05825845871199999</v>
+      </c>
+      <c r="R12">
+        <v>0.524326128408</v>
+      </c>
+      <c r="S12">
+        <v>0.01228466032374301</v>
+      </c>
+      <c r="T12">
+        <v>0.01414522589105883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5984986666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.795496</v>
+      </c>
+      <c r="I13">
+        <v>0.1914289840333158</v>
+      </c>
+      <c r="J13">
+        <v>0.2038345733723226</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.224811</v>
+      </c>
+      <c r="N13">
+        <v>0.449622</v>
+      </c>
+      <c r="O13">
+        <v>0.1482098992512074</v>
+      </c>
+      <c r="P13">
+        <v>0.106847049373944</v>
+      </c>
+      <c r="Q13">
+        <v>0.134549083752</v>
+      </c>
+      <c r="R13">
+        <v>0.8072945025120001</v>
+      </c>
+      <c r="S13">
+        <v>0.02837167043733874</v>
+      </c>
+      <c r="T13">
+        <v>0.02177912272522936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7362753333333334</v>
+      </c>
+      <c r="H14">
+        <v>2.208826</v>
+      </c>
+      <c r="I14">
+        <v>0.235496663365651</v>
+      </c>
+      <c r="J14">
+        <v>0.2507580664973321</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.117625</v>
+      </c>
+      <c r="N14">
+        <v>0.23525</v>
+      </c>
+      <c r="O14">
+        <v>0.07754598039874951</v>
+      </c>
+      <c r="P14">
+        <v>0.05590422258079081</v>
+      </c>
+      <c r="Q14">
+        <v>0.08660438608333333</v>
+      </c>
+      <c r="R14">
+        <v>0.5196263165</v>
+      </c>
+      <c r="S14">
+        <v>0.01826181964132369</v>
+      </c>
+      <c r="T14">
+        <v>0.0140184347633956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7362753333333334</v>
+      </c>
+      <c r="H15">
+        <v>2.208826</v>
+      </c>
+      <c r="I15">
+        <v>0.235496663365651</v>
+      </c>
+      <c r="J15">
+        <v>0.2507580664973321</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8902446666666667</v>
+      </c>
+      <c r="N15">
+        <v>2.670734</v>
+      </c>
+      <c r="O15">
+        <v>0.586906656505204</v>
+      </c>
+      <c r="P15">
+        <v>0.6346665589376653</v>
+      </c>
+      <c r="Q15">
+        <v>0.6554651886982222</v>
+      </c>
+      <c r="R15">
+        <v>5.899186698284001</v>
+      </c>
+      <c r="S15">
+        <v>0.1382145593140658</v>
+      </c>
+      <c r="T15">
+        <v>0.159147759189724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7362753333333334</v>
+      </c>
+      <c r="H16">
+        <v>2.208826</v>
+      </c>
+      <c r="I16">
+        <v>0.235496663365651</v>
+      </c>
+      <c r="J16">
+        <v>0.2507580664973321</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.09760433333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.292813</v>
+      </c>
+      <c r="O16">
+        <v>0.0643470666907518</v>
+      </c>
+      <c r="P16">
+        <v>0.06958335016598981</v>
+      </c>
+      <c r="Q16">
+        <v>0.07186366305977779</v>
+      </c>
+      <c r="R16">
+        <v>0.6467729675380001</v>
+      </c>
+      <c r="S16">
+        <v>0.01515351950303907</v>
+      </c>
+      <c r="T16">
+        <v>0.01744858634803042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7362753333333334</v>
+      </c>
+      <c r="H17">
+        <v>2.208826</v>
+      </c>
+      <c r="I17">
+        <v>0.235496663365651</v>
+      </c>
+      <c r="J17">
+        <v>0.2507580664973321</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.089216</v>
+      </c>
+      <c r="N17">
+        <v>0.267648</v>
+      </c>
+      <c r="O17">
+        <v>0.05881693676730998</v>
+      </c>
+      <c r="P17">
+        <v>0.06360320240299044</v>
+      </c>
+      <c r="Q17">
+        <v>0.06568754013866668</v>
+      </c>
+      <c r="R17">
+        <v>0.591187861248</v>
+      </c>
+      <c r="S17">
+        <v>0.01385119235808998</v>
+      </c>
+      <c r="T17">
+        <v>0.01594901605761235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7362753333333334</v>
+      </c>
+      <c r="H18">
+        <v>2.208826</v>
+      </c>
+      <c r="I18">
+        <v>0.235496663365651</v>
+      </c>
+      <c r="J18">
+        <v>0.2507580664973321</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.097341</v>
+      </c>
+      <c r="N18">
+        <v>0.292023</v>
+      </c>
+      <c r="O18">
+        <v>0.06417346038677726</v>
+      </c>
+      <c r="P18">
+        <v>0.06939561653861966</v>
+      </c>
+      <c r="Q18">
+        <v>0.07166977722200001</v>
+      </c>
+      <c r="R18">
+        <v>0.645027994998</v>
+      </c>
+      <c r="S18">
+        <v>0.01511263579771383</v>
+      </c>
+      <c r="T18">
+        <v>0.01740151062661454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7362753333333334</v>
+      </c>
+      <c r="H19">
+        <v>2.208826</v>
+      </c>
+      <c r="I19">
+        <v>0.235496663365651</v>
+      </c>
+      <c r="J19">
+        <v>0.2507580664973321</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.224811</v>
+      </c>
+      <c r="N19">
+        <v>0.449622</v>
+      </c>
+      <c r="O19">
+        <v>0.1482098992512074</v>
+      </c>
+      <c r="P19">
+        <v>0.106847049373944</v>
+      </c>
+      <c r="Q19">
+        <v>0.165522793962</v>
+      </c>
+      <c r="R19">
+        <v>0.9931367637720001</v>
+      </c>
+      <c r="S19">
+        <v>0.03490293675141866</v>
+      </c>
+      <c r="T19">
+        <v>0.02679275951195518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.860992</v>
+      </c>
+      <c r="H20">
+        <v>2.582976</v>
+      </c>
+      <c r="I20">
+        <v>0.2753871194714096</v>
+      </c>
+      <c r="J20">
+        <v>0.2932336307020167</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.117625</v>
+      </c>
+      <c r="N20">
+        <v>0.23525</v>
+      </c>
+      <c r="O20">
+        <v>0.07754598039874951</v>
+      </c>
+      <c r="P20">
+        <v>0.05590422258079081</v>
+      </c>
+      <c r="Q20">
+        <v>0.101274184</v>
+      </c>
+      <c r="R20">
+        <v>0.6076451039999999</v>
+      </c>
+      <c r="S20">
+        <v>0.02135516416859802</v>
+      </c>
+      <c r="T20">
+        <v>0.01639299815893895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.860992</v>
+      </c>
+      <c r="H21">
+        <v>2.582976</v>
+      </c>
+      <c r="I21">
+        <v>0.2753871194714096</v>
+      </c>
+      <c r="J21">
+        <v>0.2932336307020167</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.8902446666666667</v>
+      </c>
+      <c r="N21">
+        <v>2.670734</v>
+      </c>
+      <c r="O21">
+        <v>0.586906656505204</v>
+      </c>
+      <c r="P21">
+        <v>0.6346665589376653</v>
+      </c>
+      <c r="Q21">
+        <v>0.7664935360426667</v>
+      </c>
+      <c r="R21">
+        <v>6.898441824383999</v>
+      </c>
+      <c r="S21">
+        <v>0.1616265335335642</v>
+      </c>
+      <c r="T21">
+        <v>0.1861055793624471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.860992</v>
+      </c>
+      <c r="H22">
+        <v>2.582976</v>
+      </c>
+      <c r="I22">
+        <v>0.2753871194714096</v>
+      </c>
+      <c r="J22">
+        <v>0.2932336307020167</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.09760433333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.292813</v>
+      </c>
+      <c r="O22">
+        <v>0.0643470666907518</v>
+      </c>
+      <c r="P22">
+        <v>0.06958335016598981</v>
+      </c>
+      <c r="Q22">
+        <v>0.08403655016533333</v>
+      </c>
+      <c r="R22">
+        <v>0.7563289514879999</v>
+      </c>
+      <c r="S22">
+        <v>0.01772035334240082</v>
+      </c>
+      <c r="T22">
+        <v>0.02040417840558297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.860992</v>
+      </c>
+      <c r="H23">
+        <v>2.582976</v>
+      </c>
+      <c r="I23">
+        <v>0.2753871194714096</v>
+      </c>
+      <c r="J23">
+        <v>0.2932336307020167</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.089216</v>
+      </c>
+      <c r="N23">
+        <v>0.267648</v>
+      </c>
+      <c r="O23">
+        <v>0.05881693676730998</v>
+      </c>
+      <c r="P23">
+        <v>0.06360320240299044</v>
+      </c>
+      <c r="Q23">
+        <v>0.076814262272</v>
+      </c>
+      <c r="R23">
+        <v>0.6913283604479999</v>
+      </c>
+      <c r="S23">
+        <v>0.01619742679248154</v>
+      </c>
+      <c r="T23">
+        <v>0.01865059796490412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.860992</v>
+      </c>
+      <c r="H24">
+        <v>2.582976</v>
+      </c>
+      <c r="I24">
+        <v>0.2753871194714096</v>
+      </c>
+      <c r="J24">
+        <v>0.2932336307020167</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.097341</v>
+      </c>
+      <c r="N24">
+        <v>0.292023</v>
+      </c>
+      <c r="O24">
+        <v>0.06417346038677726</v>
+      </c>
+      <c r="P24">
+        <v>0.06939561653861966</v>
+      </c>
+      <c r="Q24">
+        <v>0.083809822272</v>
+      </c>
+      <c r="R24">
+        <v>0.7542884004479999</v>
+      </c>
+      <c r="S24">
+        <v>0.0176725444024272</v>
+      </c>
+      <c r="T24">
+        <v>0.02034912859242436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.860992</v>
+      </c>
+      <c r="H25">
+        <v>2.582976</v>
+      </c>
+      <c r="I25">
+        <v>0.2753871194714096</v>
+      </c>
+      <c r="J25">
+        <v>0.2932336307020167</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.224811</v>
+      </c>
+      <c r="N25">
+        <v>0.449622</v>
+      </c>
+      <c r="O25">
+        <v>0.1482098992512074</v>
+      </c>
+      <c r="P25">
+        <v>0.106847049373944</v>
+      </c>
+      <c r="Q25">
+        <v>0.193560472512</v>
+      </c>
+      <c r="R25">
+        <v>1.161362835072</v>
+      </c>
+      <c r="S25">
+        <v>0.04081509723193785</v>
+      </c>
+      <c r="T25">
+        <v>0.03133114821771924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.3598703333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.079611</v>
+      </c>
+      <c r="I26">
+        <v>0.1151040363672167</v>
+      </c>
+      <c r="J26">
+        <v>0.122563373905075</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.117625</v>
+      </c>
+      <c r="N26">
+        <v>0.23525</v>
+      </c>
+      <c r="O26">
+        <v>0.07754598039874951</v>
+      </c>
+      <c r="P26">
+        <v>0.05590422258079081</v>
+      </c>
+      <c r="Q26">
+        <v>0.04232974795833332</v>
+      </c>
+      <c r="R26">
+        <v>0.25397848775</v>
+      </c>
+      <c r="S26">
+        <v>0.008925855347949136</v>
+      </c>
+      <c r="T26">
+        <v>0.006851810135042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.3598703333333333</v>
+      </c>
+      <c r="H27">
+        <v>1.079611</v>
+      </c>
+      <c r="I27">
+        <v>0.1151040363672167</v>
+      </c>
+      <c r="J27">
+        <v>0.122563373905075</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.8902446666666667</v>
+      </c>
+      <c r="N27">
+        <v>2.670734</v>
+      </c>
+      <c r="O27">
+        <v>0.586906656505204</v>
+      </c>
+      <c r="P27">
+        <v>0.6346665589376653</v>
+      </c>
+      <c r="Q27">
+        <v>0.3203726449415555</v>
+      </c>
+      <c r="R27">
+        <v>2.883353804473999</v>
+      </c>
+      <c r="S27">
+        <v>0.06755532513453656</v>
+      </c>
+      <c r="T27">
+        <v>0.07778687476812438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.3598703333333333</v>
+      </c>
+      <c r="H28">
+        <v>1.079611</v>
+      </c>
+      <c r="I28">
+        <v>0.1151040363672167</v>
+      </c>
+      <c r="J28">
+        <v>0.122563373905075</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.09760433333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.292813</v>
+      </c>
+      <c r="O28">
+        <v>0.0643470666907518</v>
+      </c>
+      <c r="P28">
+        <v>0.06958335016598981</v>
+      </c>
+      <c r="Q28">
+        <v>0.03512490397144444</v>
+      </c>
+      <c r="R28">
+        <v>0.316124135743</v>
+      </c>
+      <c r="S28">
+        <v>0.007406607104496013</v>
+      </c>
+      <c r="T28">
+        <v>0.008528370163961969</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.3598703333333333</v>
+      </c>
+      <c r="H29">
+        <v>1.079611</v>
+      </c>
+      <c r="I29">
+        <v>0.1151040363672167</v>
+      </c>
+      <c r="J29">
+        <v>0.122563373905075</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.089216</v>
+      </c>
+      <c r="N29">
+        <v>0.267648</v>
+      </c>
+      <c r="O29">
+        <v>0.05881693676730998</v>
+      </c>
+      <c r="P29">
+        <v>0.06360320240299044</v>
+      </c>
+      <c r="Q29">
+        <v>0.03210619165866666</v>
+      </c>
+      <c r="R29">
+        <v>0.288955724928</v>
+      </c>
+      <c r="S29">
+        <v>0.006770066828672734</v>
+      </c>
+      <c r="T29">
+        <v>0.007795423077677881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.3598703333333333</v>
+      </c>
+      <c r="H30">
+        <v>1.079611</v>
+      </c>
+      <c r="I30">
+        <v>0.1151040363672167</v>
+      </c>
+      <c r="J30">
+        <v>0.122563373905075</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.097341</v>
+      </c>
+      <c r="N30">
+        <v>0.292023</v>
+      </c>
+      <c r="O30">
+        <v>0.06417346038677726</v>
+      </c>
+      <c r="P30">
+        <v>0.06939561653861966</v>
+      </c>
+      <c r="Q30">
+        <v>0.035030138117</v>
+      </c>
+      <c r="R30">
+        <v>0.3152712430529999</v>
+      </c>
+      <c r="S30">
+        <v>0.007386624318169751</v>
+      </c>
+      <c r="T30">
+        <v>0.008505360897196047</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.3598703333333333</v>
+      </c>
+      <c r="H31">
+        <v>1.079611</v>
+      </c>
+      <c r="I31">
+        <v>0.1151040363672167</v>
+      </c>
+      <c r="J31">
+        <v>0.122563373905075</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.224811</v>
+      </c>
+      <c r="N31">
+        <v>0.449622</v>
+      </c>
+      <c r="O31">
+        <v>0.1482098992512074</v>
+      </c>
+      <c r="P31">
+        <v>0.106847049373944</v>
+      </c>
+      <c r="Q31">
+        <v>0.08090280950699999</v>
+      </c>
+      <c r="R31">
+        <v>0.485416857042</v>
+      </c>
+      <c r="S31">
+        <v>0.01705955763339251</v>
+      </c>
+      <c r="T31">
+        <v>0.01309553486307271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.2717345</v>
+      </c>
+      <c r="H32">
+        <v>0.543469</v>
+      </c>
+      <c r="I32">
+        <v>0.08691391002007423</v>
+      </c>
+      <c r="J32">
+        <v>0.06169758760592213</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.117625</v>
+      </c>
+      <c r="N32">
+        <v>0.23525</v>
+      </c>
+      <c r="O32">
+        <v>0.07754598039874951</v>
+      </c>
+      <c r="P32">
+        <v>0.05590422258079081</v>
+      </c>
+      <c r="Q32">
+        <v>0.0319627705625</v>
+      </c>
+      <c r="R32">
+        <v>0.12785108225</v>
+      </c>
+      <c r="S32">
+        <v>0.006739824362795355</v>
+      </c>
+      <c r="T32">
+        <v>0.003449155670219311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.2717345</v>
+      </c>
+      <c r="H33">
+        <v>0.543469</v>
+      </c>
+      <c r="I33">
+        <v>0.08691391002007423</v>
+      </c>
+      <c r="J33">
+        <v>0.06169758760592213</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.8902446666666667</v>
+      </c>
+      <c r="N33">
+        <v>2.670734</v>
+      </c>
+      <c r="O33">
+        <v>0.586906656505204</v>
+      </c>
+      <c r="P33">
+        <v>0.6346665589376653</v>
+      </c>
+      <c r="Q33">
+        <v>0.2419101893743333</v>
+      </c>
+      <c r="R33">
+        <v>1.451461136246</v>
+      </c>
+      <c r="S33">
+        <v>0.05101035233367592</v>
+      </c>
+      <c r="T33">
+        <v>0.03915739562060574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.2717345</v>
+      </c>
+      <c r="H34">
+        <v>0.543469</v>
+      </c>
+      <c r="I34">
+        <v>0.08691391002007423</v>
+      </c>
+      <c r="J34">
+        <v>0.06169758760592213</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.09760433333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.292813</v>
+      </c>
+      <c r="O34">
+        <v>0.0643470666907518</v>
+      </c>
+      <c r="P34">
+        <v>0.06958335016598981</v>
+      </c>
+      <c r="Q34">
+        <v>0.02652246471616667</v>
+      </c>
+      <c r="R34">
+        <v>0.159134788297</v>
+      </c>
+      <c r="S34">
+        <v>0.005592655164415717</v>
+      </c>
+      <c r="T34">
+        <v>0.004293124842779712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.2717345</v>
+      </c>
+      <c r="H35">
+        <v>0.543469</v>
+      </c>
+      <c r="I35">
+        <v>0.08691391002007423</v>
+      </c>
+      <c r="J35">
+        <v>0.06169758760592213</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.089216</v>
+      </c>
+      <c r="N35">
+        <v>0.267648</v>
+      </c>
+      <c r="O35">
+        <v>0.05881693676730998</v>
+      </c>
+      <c r="P35">
+        <v>0.06360320240299044</v>
+      </c>
+      <c r="Q35">
+        <v>0.024243065152</v>
+      </c>
+      <c r="R35">
+        <v>0.145458390912</v>
+      </c>
+      <c r="S35">
+        <v>0.005112009949850375</v>
+      </c>
+      <c r="T35">
+        <v>0.0039241641522757</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.2717345</v>
+      </c>
+      <c r="H36">
+        <v>0.543469</v>
+      </c>
+      <c r="I36">
+        <v>0.08691391002007423</v>
+      </c>
+      <c r="J36">
+        <v>0.06169758760592213</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.097341</v>
+      </c>
+      <c r="N36">
+        <v>0.292023</v>
+      </c>
+      <c r="O36">
+        <v>0.06417346038677726</v>
+      </c>
+      <c r="P36">
+        <v>0.06939561653861966</v>
+      </c>
+      <c r="Q36">
+        <v>0.0264509079645</v>
+      </c>
+      <c r="R36">
+        <v>0.158705447787</v>
+      </c>
+      <c r="S36">
+        <v>0.005577566361733157</v>
+      </c>
+      <c r="T36">
+        <v>0.004281542130858465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.2717345</v>
+      </c>
+      <c r="H37">
+        <v>0.543469</v>
+      </c>
+      <c r="I37">
+        <v>0.08691391002007423</v>
+      </c>
+      <c r="J37">
+        <v>0.06169758760592213</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <v>0.224811</v>
+      </c>
+      <c r="N37">
+        <v>0.449622</v>
+      </c>
+      <c r="O37">
+        <v>0.1482098992512074</v>
+      </c>
+      <c r="P37">
+        <v>0.106847049373944</v>
+      </c>
+      <c r="Q37">
+        <v>0.0610889046795</v>
+      </c>
+      <c r="R37">
+        <v>0.244355618718</v>
+      </c>
+      <c r="S37">
+        <v>0.01288150184760371</v>
+      </c>
+      <c r="T37">
+        <v>0.006592205189183198</v>
       </c>
     </row>
   </sheetData>
